--- a/rhla_analysis/rhla1_3_normal_result/k0.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k0.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02498230060902692</v>
+        <v>0.02498230060902685</v>
       </c>
       <c r="B2" t="n">
         <v>0.1540776266113349</v>
@@ -466,12 +466,12 @@
         <v>0.05242966751918159</v>
       </c>
       <c r="D2" t="n">
-        <v>6.167471484017836</v>
+        <v>6.167471484017851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01423153734047965</v>
+        <v>0.01423153734047967</v>
       </c>
       <c r="B3" t="n">
         <v>0.1172495739730349</v>
@@ -480,12 +480,12 @@
         <v>0.04859335038363171</v>
       </c>
       <c r="D3" t="n">
-        <v>8.238714565258855</v>
+        <v>8.23871456525884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02120940067449439</v>
+        <v>0.02120940067449463</v>
       </c>
       <c r="B4" t="n">
         <v>0.1802165771561086</v>
@@ -494,12 +494,12 @@
         <v>0.04774083546462063</v>
       </c>
       <c r="D4" t="n">
-        <v>8.497014126987102</v>
+        <v>8.497014126987006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006506802570644931</v>
+        <v>0.006506802570644895</v>
       </c>
       <c r="B5" t="n">
         <v>0.1236966677080129</v>
@@ -508,12 +508,12 @@
         <v>0.03069053708439898</v>
       </c>
       <c r="D5" t="n">
-        <v>19.01036128959304</v>
+        <v>19.01036128959314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02262230712017998</v>
+        <v>0.02262230712017993</v>
       </c>
       <c r="B6" t="n">
         <v>0.1368634175734921</v>
@@ -522,12 +522,12 @@
         <v>0.05583972719522592</v>
       </c>
       <c r="D6" t="n">
-        <v>6.049931903338214</v>
+        <v>6.049931903338227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01458216195154204</v>
+        <v>0.01458216195154212</v>
       </c>
       <c r="B7" t="n">
         <v>0.1571816064198523</v>
@@ -536,12 +536,12 @@
         <v>0.03665814151747655</v>
       </c>
       <c r="D7" t="n">
-        <v>10.77903310511721</v>
+        <v>10.77903310511715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.008467952432881128</v>
+        <v>0.008467952432881121</v>
       </c>
       <c r="B8" t="n">
         <v>0.1334065436922519</v>
@@ -550,12 +550,12 @@
         <v>0.05029838022165388</v>
       </c>
       <c r="D8" t="n">
-        <v>15.75428590909808</v>
+        <v>15.75428590909809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01051954302201786</v>
+        <v>0.01051954302201789</v>
       </c>
       <c r="B9" t="n">
         <v>0.1382164072317967</v>
@@ -564,12 +564,12 @@
         <v>0.06180733162830349</v>
       </c>
       <c r="D9" t="n">
-        <v>13.13901249726378</v>
+        <v>13.13901249726374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02350257781617972</v>
+        <v>0.02350257781617981</v>
       </c>
       <c r="B10" t="n">
         <v>0.1510471427293491</v>
@@ -578,7 +578,7 @@
         <v>0.05029838022165388</v>
       </c>
       <c r="D10" t="n">
-        <v>6.426833001500149</v>
+        <v>6.426833001500123</v>
       </c>
     </row>
     <row r="11">
